--- a/inf_basic/estoque_preco.xlsx
+++ b/inf_basic/estoque_preco.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\estudos\inf_basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67AC997D-0E5B-4F7A-BACE-669C77A0D4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4763911-2154-4B22-BDBD-32E473F6242C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD7EAB8D-0EEE-4DB5-86BE-CDD040CF48A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{FD7EAB8D-0EEE-4DB5-86BE-CDD040CF48A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Chart3" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>Armazem Só Birocci.lda</t>
   </si>
@@ -158,6 +161,15 @@
   <si>
     <t>Margen de lucro</t>
   </si>
+  <si>
+    <t>Nome do artigo em maiúscula</t>
+  </si>
+  <si>
+    <t>Nome do artigo em minúscula</t>
+  </si>
+  <si>
+    <t>Juntar o código do artigocom o seu nome</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +179,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +194,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,9 +251,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -245,6 +270,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -261,6 +302,3914 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.3960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.178000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.786999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B9F9-476A-8FE0-4DC80221957A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="912521664"/>
+        <c:axId val="912510624"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="912521664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912510624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="912510624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Valores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="912521664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d contourW="19050">
+          <a:contourClr>
+            <a:schemeClr val="accent1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d contourW="19050">
+          <a:contourClr>
+            <a:schemeClr val="accent1"/>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1960000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5780000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.3960000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>199.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.98</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.385999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.178000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.786999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d contourW="9525">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Dobradiça</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fechadura</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Chave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martelo</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tesoura</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pá</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Balde</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Escada</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Enchada</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Torneira</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Serrote</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Esquadro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* "-"??\ [$€-816]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>292.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:shape val="cylinder"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-57AC-46BA-B9A9-C6F34D269FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="922341600"/>
+        <c:axId val="922342080"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="922341600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922342080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="922342080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Valores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="922341600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{11516CB9-3FC2-4032-A3A1-CCC3BA894C5F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3E1D5105-966D-4C03-A621-988F35B293D7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="98" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9289143" cy="6068786"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BB15E0-4BBE-B17B-15FD-A2A12CA5719F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9289143" cy="6068786"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D742C88-3AE2-3D87-5645-B86E66F8A28C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,11 +4508,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152C2078-45B4-49EF-AB45-11584475DEA8}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="117" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>UPPER(B4)</f>
+        <v>DOBRADIÇA</v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>LOWER(B4)</f>
+        <v>dobradiça</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>_xlfn.CONCAT(A4, " ",B4)</f>
+        <v>S99 Dobradiça</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8">
+        <v>125</v>
+      </c>
+      <c r="D5" s="7" t="str">
+        <f t="shared" ref="D5:D15" si="0">UPPER(B5)</f>
+        <v>FECHADURA</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f t="shared" ref="E5:E15" si="1">LOWER(B5)</f>
+        <v>fechadura</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" ref="F5:F15" si="2">_xlfn.CONCAT(A5, " ",B5)</f>
+        <v>S93 Fechadura</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>CHAVE</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>chave</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S78 Chave</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>MARTELO</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>martelo</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S77 Martelo</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TESOURA</v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>tesoura</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S67 Tesoura</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>PÁ</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>pá</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S56 Pá</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>BALDE</v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>balde</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S55 Balde</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="8">
+        <v>40</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ESCADA</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>escada</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S45 Escada</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ENCHADA</v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>enchada</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S3 Enchada</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>TORNEIRA</v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>torneira</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S20 Torneira</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>SERROTE</v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>serrote</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S185 Serrote</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>ESQUADRO</v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>esquadro</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>S15 Esquadro</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A896C-1BC2-405A-84F6-6BB0F77FDBA5}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" activeCellId="2" sqref="C4:E15 G4:K15 B4:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,679 +4855,679 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="147.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>(C4*M$6)</f>
         <v>0.92</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <f>(C4*M$6+C4)</f>
         <v>4.92</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>100</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>F4*C4</f>
         <v>400</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>(C4*M$9)</f>
         <v>1.2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f>(C4+H4)*M$6</f>
         <v>1.1960000000000002</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f>(C4+H4+I4)</f>
         <v>6.3960000000000008</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <f>(F4*H4)</f>
         <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>125</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" ref="D5:D15" si="0">(C5*M$6)</f>
         <v>28.75</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:E15" si="1">(C5*M$6+C5)</f>
         <v>153.75</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>50</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G15" si="2">F5*C5</f>
         <v>6250</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" ref="H5:H15" si="3">(C5*M$9)</f>
         <v>37.5</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f t="shared" ref="I5:I15" si="4">(C5+H5)*M$6</f>
         <v>37.375</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f t="shared" ref="J5:J15" si="5">(C5+H5+I5)</f>
         <v>199.875</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <f t="shared" ref="K5:K15" si="6">(F5*H5)</f>
         <v>1875</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>100</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f t="shared" si="4"/>
         <v>2.99</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f t="shared" si="5"/>
         <v>15.99</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>0.23</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>18.45</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>50</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
         <v>4.4850000000000003</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="5"/>
         <v>23.984999999999999</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="6"/>
         <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>50</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f t="shared" si="4"/>
         <v>2.99</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f t="shared" si="5"/>
         <v>15.99</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>18.45</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>65</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>975</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f t="shared" si="4"/>
         <v>4.4850000000000003</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f t="shared" si="5"/>
         <v>23.984999999999999</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <f t="shared" si="6"/>
         <v>292.5</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>6.15</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f t="shared" si="4"/>
         <v>1.4950000000000001</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="5"/>
         <v>7.9950000000000001</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>40</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>9.2000000000000011</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>49.2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>10</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f t="shared" si="4"/>
         <v>11.96</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f t="shared" si="5"/>
         <v>63.96</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>20</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>24.6</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>150</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f t="shared" si="4"/>
         <v>5.98</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f t="shared" si="5"/>
         <v>31.98</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <f t="shared" si="6"/>
         <v>900</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>3.22</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>17.22</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>55</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>770</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f t="shared" si="4"/>
         <v>4.1859999999999999</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f t="shared" si="5"/>
         <v>22.385999999999999</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <f t="shared" si="6"/>
         <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>22</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <f t="shared" si="0"/>
         <v>5.0600000000000005</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
         <v>27.060000000000002</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>20</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f t="shared" si="4"/>
         <v>6.5780000000000003</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" si="5"/>
         <v>35.178000000000004</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <f t="shared" si="6"/>
         <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>13</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <f t="shared" si="0"/>
         <v>2.99</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
         <v>15.99</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>10</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <f t="shared" si="3"/>
         <v>3.9</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f t="shared" si="4"/>
         <v>3.887</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f t="shared" si="5"/>
         <v>20.786999999999999</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <f t="shared" si="6"/>
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <f>SUM(D4:D16)</f>
         <v>67.39</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <f>SUM(E4:E16)</f>
         <v>360.39000000000004</v>
       </c>
-      <c r="F17" s="5">
-        <f>SUM(F4:F15)</f>
+      <c r="F17" s="4">
+        <f t="shared" ref="F17:K17" si="7">SUM(F4:F15)</f>
         <v>860</v>
       </c>
-      <c r="G17" s="10">
-        <f>SUM(G4:G15)</f>
+      <c r="G17" s="9">
+        <f t="shared" si="7"/>
         <v>15615</v>
       </c>
-      <c r="H17" s="10">
-        <f>SUM(H4:H15)</f>
+      <c r="H17" s="9">
+        <f t="shared" si="7"/>
         <v>87.9</v>
       </c>
-      <c r="I17" s="10">
-        <f>SUM(I4:I15)</f>
+      <c r="I17" s="9">
+        <f t="shared" si="7"/>
         <v>87.606999999999999</v>
       </c>
-      <c r="J17" s="10">
-        <f>SUM(J4:J15)</f>
+      <c r="J17" s="9">
+        <f t="shared" si="7"/>
         <v>468.50700000000006</v>
       </c>
-      <c r="K17" s="5">
-        <f>SUM(K4:K15)</f>
+      <c r="K17" s="4">
+        <f t="shared" si="7"/>
         <v>4684.5</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <f>AVERAGE(D4:D15)</f>
         <v>5.6158333333333337</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" ref="E18:K18" si="7">AVERAGE(E4:E15)</f>
+      <c r="E18" s="9">
+        <f t="shared" ref="E18:K18" si="8">AVERAGE(E4:E15)</f>
         <v>30.032500000000002</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="7"/>
+      <c r="F18" s="9">
+        <f t="shared" si="8"/>
         <v>71.666666666666671</v>
       </c>
-      <c r="G18" s="10">
-        <f t="shared" si="7"/>
+      <c r="G18" s="9">
+        <f t="shared" si="8"/>
         <v>1301.25</v>
       </c>
-      <c r="H18" s="10">
-        <f t="shared" si="7"/>
+      <c r="H18" s="9">
+        <f t="shared" si="8"/>
         <v>7.3250000000000002</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="7"/>
+      <c r="I18" s="9">
+        <f t="shared" si="8"/>
         <v>7.300583333333333</v>
       </c>
-      <c r="J18" s="10">
-        <f t="shared" si="7"/>
+      <c r="J18" s="9">
+        <f t="shared" si="8"/>
         <v>39.042250000000003</v>
       </c>
-      <c r="K18" s="10">
-        <f t="shared" si="7"/>
+      <c r="K18" s="9">
+        <f t="shared" si="8"/>
         <v>390.375</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <f>MIN(D4:D15)</f>
         <v>0.92</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" ref="E19:K19" si="8">MIN(E4:E15)</f>
+      <c r="E19" s="9">
+        <f t="shared" ref="E19:K19" si="9">MIN(E4:E15)</f>
         <v>4.92</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="8"/>
+      <c r="F19" s="9">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="G19" s="10">
-        <f t="shared" si="8"/>
+      <c r="G19" s="9">
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
-      <c r="H19" s="10">
-        <f t="shared" si="8"/>
+      <c r="H19" s="9">
+        <f t="shared" si="9"/>
         <v>1.2</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="8"/>
+      <c r="I19" s="9">
+        <f t="shared" si="9"/>
         <v>1.1960000000000002</v>
       </c>
-      <c r="J19" s="10">
-        <f t="shared" si="8"/>
+      <c r="J19" s="9">
+        <f t="shared" si="9"/>
         <v>6.3960000000000008</v>
       </c>
-      <c r="K19" s="10">
-        <f t="shared" si="8"/>
+      <c r="K19" s="9">
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
     </row>
